--- a/data/sample_import_template-qwen3-max-instruct.xlsx
+++ b/data/sample_import_template-qwen3-max-instruct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Leaderboard-LLM-v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76189D2F-FB22-4DA1-8D3C-E4A7A2163F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16FF1E9-4B41-448A-80A1-3A28CE2B4C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -693,7 +693,7 @@
         <v>70</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>

--- a/data/sample_import_template-qwen3-max-instruct.xlsx
+++ b/data/sample_import_template-qwen3-max-instruct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Leaderboard-LLM-v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16FF1E9-4B41-448A-80A1-3A28CE2B4C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9030A5-5948-4112-B3E7-8D4426458EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
   <si>
     <t>task_id</t>
   </si>
@@ -236,6 +236,122 @@
   </si>
   <si>
     <t>llm-019</t>
+  </si>
+  <si>
+    <t>There are three sovereign countries in the world whose English names end in **“lia”**:
+1. **Australia**  
+   - Capital: **Canberra**
+2. **Bulgaria**  
+   - Capital: **Sofia**
+3. **Mongolia**  
+   - Capital: **Ulaanbaatar**
+These are the only internationally recognized sovereign states with names ending in “lia” in English.</t>
+  </si>
+  <si>
+    <t>Answer:
+"Jab flunked grog—vamp swift chiq."</t>
+  </si>
+  <si>
+    <t>Soft ice melts
+Pure light ends the chill—
+Spring in my palm, life emerges.</t>
+  </si>
+  <si>
+    <t>0,1,14,15</t>
+  </si>
+  <si>
+    <t>### Summer Scenario: Crossing by Boat  
+In the summer, the river flows freely, so the boat is your primary means of crossing. Here’s how you’d do it:  
+1. **Prepare the Boat**: Ensure the boat is seaworthy—check for leaks, secure any oars or paddles, and confirm it’s tied safely to the bank.  
+2. **Board and Row**: Step carefully into the boat, keeping your weight centered to avoid tipping. Use the oars to row steadily across the river, aiming slightly upstream to counteract the current’s pull.  
+3. **Land Safely**: As you approach the opposite bank, slow your pace to avoid crashing into the shore. Step out onto solid ground, securing the boat to a tree or rock to prevent it from drifting away.  
+4. **Harvest Peaches**: Walk to the peach tree, which is heavy with ripe, juicy summer peaches. Pick a few (ensuring they’re fully ripe—slightly soft with a golden-red blush), wash them in the river if needed, and enjoy their sweet, sun-warmed flesh right there under the tree.  
+5. **Return**: After eating, reboard the boat, untie it, and row back to your starting side.  
+### Winter Scenario: Crossing on Ice (No Boat Needed)  
+In winter, the river freezes solidly, making the boat unusable—but the ice creates a natural bridge. However, peaches don’t grow in winter, so you’ll need to adapt:  
+1. **Assess Ice Safety**: First, verify the ice is thick enough to support your weight (at least 4 inches/10 cm of clear, solid ice). Test it cautiously near the shore with a pole or by tapping it—*never* assume it’s safe without checking. Avoid areas with cracks, flowing water, or snow cover (which can hide weak spots).  
+2. **Cross on Foot**: Once confirmed safe, walk steadily across the ice. Wear grippy boots for traction, and carry a rope or ice picks as a safety measure in case of a fall. Move slowly, distributing your weight evenly—no running or sudden movements.  
+3. **Address the Peach Problem**: Peach trees are deciduous and dormant in winter. **There are no fresh peaches on the tree**—they only ripen in summer. To "eat peaches" in winter, you’d need to rely on preserved fruit:  
+   - **Option A (Pre-Planned)**: Before winter, you’d have harvested and preserved summer peaches (e.g., canned, dried, or frozen them). Store these in a cool, dry place on your original side. After crossing the ice, you’d eat these preserved peaches while sitting under the bare tree, savoring summer’s memory.  
+   - **Option B (Hypothetical)**: If we imagine the tree *somehow* bears fruit in winter (e.g., in a magical or greenhouse-like setting), you’d pick the peaches as in summer. But realistically, you’d find only bare branches.  
+4. **Return Safely**: After your "peach" break (with preserved fruit or just contemplation), retrace your steps across the ice, again moving cautiously. Once back on your side, warm up with hot tea to thaw out!  
+### Key Insight  
+The riddle hinges on seasonal reality: **peaches are a summer fruit**. In winter, the frozen river allows foot travel, but the tree offers no fresh peaches—only preparation from summer makes "eating peaches" possible. Always prioritize safety: never risk thin ice, and respect nature’s cycles! 🍑❄️</t>
+  </si>
+  <si>
+    <t>This is a classic logic puzzle known as the **Missionaries and Cannibals problem**. The goal is to get all three missionaries (M) and three cannibals (C) across a river using a boat that holds **at most two people**, **without ever allowing cannibals to outnumber missionaries on either bank** (unless there are no missionaries on that bank, in which case it's safe).
+### Rules Recap:
+- Boat holds **1 or 2 people**.
+- **Cannibals must never outnumber missionaries** on either bank **if there is at least one missionary present**.
+- The boat cannot move without someone in it.
+We'll denote the state as:  
+**(Left Bank: M, C | Right Bank: M, C | Boat Position)**  
+Start: **(3, 3 | 0, 0 | Left)**  
+Goal: **(0, 0 | 3, 3 | Right)**
+---
+### Step-by-step solution:
+1. **Two cannibals cross right**  
+   → (3, 1 | 0, 2 | Right)
+2. **One cannibal returns left**  
+   → (3, 2 | 0, 1 | Left)
+3. **Two cannibals cross right**  
+   → (3, 0 | 0, 3 | Right)
+4. **One cannibal returns left**  
+   → (3, 1 | 0, 2 | Left)
+5. **Two missionaries cross right**  
+   → (1, 1 | 2, 2 | Right)
+6. **One missionary and one cannibal return left**  
+   → (2, 2 | 1, 1 | Left)
+7. **Two missionaries cross right**  
+   → (0, 2 | 3, 1 | Right)
+8. **One cannibal returns left**  
+   → (0, 3 | 3, 0 | Left)
+9. **Two cannibals cross right**  
+   → (0, 1 | 3, 2 | Right)
+10. **One cannibal returns left**  
+    → (0, 2 | 3, 1 | Left)
+11. **Two cannibals cross right**  
+    → (0, 0 | 3, 3 | Right) ✅
+---
+### Verification of safety at each step:
+- **Step 1**: Left: 3M,1C → safe (M ≥ C); Right: 0M,2C → safe (no missionaries)
+- **Step 2**: Left: 3M,2C → safe; Right: 0M,1C → safe
+- **Step 3**: Left: 3M,0C → safe; Right: 0M,3C → safe
+- **Step 4**: Left: 3M,1C → safe; Right: 0M,2C → safe
+- **Step 5**: Left: 1M,1C → safe (1=1); Right: 2M,2C → safe
+- **Step 6**: Left: 2M,2C → safe; Right: 1M,1C → safe
+- **Step 7**: Left: 0M,2C → safe (no missionaries); Right: 3M,1C → safe
+- **Step 8**: Left: 0M,3C → safe; Right: 3M,0C → safe
+- **Step 9**: Left: 0M,1C → safe; Right: 3M,2C → safe (3 ≥ 2)
+- **Step 10**: Left: 0M,2C → safe; Right: 3M,1C → safe
+- **Step 11**: All on right → done!
+✅ **All constraints satisfied.**
+This is the standard minimal solution in **11 crossings** (or **6 round trips + 1 final one-way**).</t>
+  </si>
+  <si>
+    <t>Mr. Vanek most commonly calls Gorchev **"Petrovich"** or **"Mr. Petrovich."**
+When he can't remember or is confused about Gorchev's name, he uses a variety of other names, including:
+- **Gorchev** (occasionally, when corrected or reminded)
+- **Chervonets** (early on, echoing Gorchev’s false claim to be “Prince Chervonets”)
+- **Zwillinger**
+- **Golitser**
+- **Cortot**
+These shifting names reflect Mr. Vanek’s persistent confusion and the chaotic, farcical nature of their relationship—especially since Gorchev himself constantly invents false identities, and Mr. Vanek, trying to keep up, ends up mixing them all together.</t>
+  </si>
+  <si>
+    <t>Above Mr. Vanek's bed is **Gorchev’s large yellow suitcase**.
+This is mentioned in Chapter Ten, where it states:
+&gt; "However, Mr. Vanek, who only knew that the luggage with everything in it necessary for a legionary was on a shelf above the bed, was a little surprised to discover only a cigar box with a name written on it."
+And earlier, in Chapter Nine:
+&gt; "His own well stocked yellow suitcase was already there."
+So, although Mr. Vanek initially expects his own supplies, what is actually above the bed is **Gorchev’s yellow suitcase**—which the butcher later steals, leaving only Cortot’s cigar box in its place by the time Mr. Vanek looks.</t>
+  </si>
+  <si>
+    <t>Alec Lonesome likes **boiled mutton with onions**.  
+This is shown in Chapter Six, when he tells Gorchev:  
+&gt; „Do you like boiled mutton with onions?” asked the duck-bill-nosed, „because they make that good here.”  
+And later confirms:  
+&gt; „Noze, not to me. I like meat with onions.”</t>
   </si>
 </sst>
 </file>
@@ -629,7 +745,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -693,7 +809,10 @@
         <v>70</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -718,6 +837,9 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
@@ -741,6 +863,9 @@
       <c r="F4">
         <v>3</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
@@ -764,6 +889,9 @@
       <c r="F5">
         <v>9</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
@@ -787,6 +915,9 @@
       <c r="F6">
         <v>9</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
@@ -810,6 +941,9 @@
       <c r="F7">
         <v>10</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
@@ -833,6 +967,9 @@
       <c r="F8">
         <v>9</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
@@ -856,6 +993,9 @@
       <c r="F9">
         <v>8</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
@@ -878,6 +1018,9 @@
       </c>
       <c r="F10">
         <v>7</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>

--- a/data/sample_import_template-qwen3-max-instruct.xlsx
+++ b/data/sample_import_template-qwen3-max-instruct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Leaderboard-LLM-v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9030A5-5948-4112-B3E7-8D4426458EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D0F1C5-69CB-458E-B362-D166BFA98352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="25968" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,6 @@
     <t>language_tasks_002</t>
   </si>
   <si>
-    <t>English pangram without x,y,z</t>
-  </si>
-  <si>
-    <t>Write an English pangram that uses every letter of the alphabet exactly once except: x,y,z</t>
-  </si>
-  <si>
     <t>language_tasks_003</t>
   </si>
   <si>
@@ -246,10 +240,6 @@
 3. **Mongolia**  
    - Capital: **Ulaanbaatar**
 These are the only internationally recognized sovereign states with names ending in “lia” in English.</t>
-  </si>
-  <si>
-    <t>Answer:
-"Jab flunked grog—vamp swift chiq."</t>
   </si>
   <si>
     <t>Soft ice melts
@@ -352,6 +342,20 @@
 &gt; „Do you like boiled mutton with onions?” asked the duck-bill-nosed, „because they make that good here.”  
 And later confirms:  
 &gt; „Noze, not to me. I like meat with onions.”</t>
+  </si>
+  <si>
+    <t>Game  
+on the field—  
+hearts race fast now,  
+chasing dreams with every stride.  
+Victory calls through sweat and sacrifice—  
+Triumph echoes in the roar of the crowd's wild pride.</t>
+  </si>
+  <si>
+    <t>Write a poem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a poem that consists of 6 lines and is about sports. The number of syllables in the lines increases by 1 from line to line. The first line has 1 syllable. </t>
   </si>
 </sst>
 </file>
@@ -745,7 +749,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -797,22 +801,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -823,22 +827,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -846,25 +850,25 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -872,25 +876,25 @@
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -898,25 +902,25 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" customHeight="1">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -924,25 +928,25 @@
     </row>
     <row r="7" spans="1:10" ht="12.6" customHeight="1">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -950,25 +954,25 @@
     </row>
     <row r="8" spans="1:10" ht="16.8" customHeight="1">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -976,25 +980,25 @@
     </row>
     <row r="9" spans="1:10" ht="15.6" customHeight="1">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1002,25 +1006,25 @@
     </row>
     <row r="10" spans="1:10" ht="16.8" customHeight="1">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -1028,19 +1032,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -1051,19 +1055,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -1074,19 +1078,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -1097,19 +1101,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -1120,19 +1124,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15">
         <v>9</v>
@@ -1143,19 +1147,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <v>9</v>
@@ -1166,19 +1170,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1189,19 +1193,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -1212,19 +1216,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19">
         <v>0</v>

--- a/data/sample_import_template-qwen3-max-instruct.xlsx
+++ b/data/sample_import_template-qwen3-max-instruct.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Leaderboard-LLM-v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D0F1C5-69CB-458E-B362-D166BFA98352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CFDAA0-425C-4413-B470-8F8A56E37DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3456" yWindow="3456" windowWidth="25968" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,7 +749,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1047,7 +1047,7 @@
         <v>68</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
